--- a/biology/Médecine/Rupture_du_frein/Rupture_du_frein.xlsx
+++ b/biology/Médecine/Rupture_du_frein/Rupture_du_frein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rupture du frein est une douleur suivie de saignement au niveau du frein du pénis. Cet accident peut survenir chez les jeunes hommes lors des premiers rapports sexuels. Le frein peut aussi céder lors d'une érection rigide qui tire sur le prépuce, sous l'effet du décalottage[1].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rupture du frein est une douleur suivie de saignement au niveau du frein du pénis. Cet accident peut survenir chez les jeunes hommes lors des premiers rapports sexuels. Le frein peut aussi céder lors d'une érection rigide qui tire sur le prépuce, sous l'effet du décalottage.  
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Freinage intempestif ou rupture du frein : plus de peur que de mal. », Association française d'urologie,‎ 9 mai 2017, p. 1 (lire en ligne)
